--- a/3 - Project Management/3.2 - Contacts/Contact Sheet.xlsx
+++ b/3 - Project Management/3.2 - Contacts/Contact Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3140" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>(972) 832-0662</t>
+  </si>
+  <si>
+    <t>Karime Saad</t>
+  </si>
+  <si>
+    <t>karime.saad@utexas.edu</t>
   </si>
 </sst>
 </file>
@@ -440,16 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,11 +500,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/3 - Project Management/3.2 - Contacts/Contact Sheet.xlsx
+++ b/3 - Project Management/3.2 - Contacts/Contact Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>karime.saad@utexas.edu</t>
+  </si>
+  <si>
+    <t>Lindsey Flangas</t>
+  </si>
+  <si>
+    <t>lindseyflangas@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -446,16 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,6 +512,14 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -514,6 +528,7 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
